--- a/data/trans_orig/P14A05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A05-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9951DBF-E8AF-4488-A687-C9907D3CFCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F54CF671-AEBC-40D1-9AA7-6CF2336216A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F66928C-5A4C-4712-9C1A-4B3B486CAED7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{961B5C2B-0FC2-4EFD-B272-180C22D8D814}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="165">
   <si>
     <t>Población que recibe medicación o terapia por colitis en 2012 (Tasa respuesta: 1,24%)</t>
   </si>
@@ -102,7 +102,7 @@
     <t>87,33%</t>
   </si>
   <si>
-    <t>42,8%</t>
+    <t>56,37%</t>
   </si>
   <si>
     <t>72,08%</t>
@@ -111,13 +111,13 @@
     <t>82,3%</t>
   </si>
   <si>
-    <t>52,74%</t>
+    <t>53,26%</t>
   </si>
   <si>
     <t>12,67%</t>
   </si>
   <si>
-    <t>57,2%</t>
+    <t>43,63%</t>
   </si>
   <si>
     <t>27,92%</t>
@@ -126,7 +126,7 @@
     <t>17,7%</t>
   </si>
   <si>
-    <t>47,26%</t>
+    <t>46,74%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -141,19 +141,19 @@
     <t>77,91%</t>
   </si>
   <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
   </si>
   <si>
     <t>79,77%</t>
   </si>
   <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
   </si>
   <si>
     <t>15,44%</t>
@@ -165,19 +165,19 @@
     <t>22,09%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
   </si>
   <si>
     <t>20,23%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -189,13 +189,13 @@
     <t>92,12%</t>
   </si>
   <si>
-    <t>66,44%</t>
+    <t>65,38%</t>
   </si>
   <si>
     <t>95,04%</t>
   </si>
   <si>
-    <t>78,18%</t>
+    <t>78,39%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -204,13 +204,13 @@
     <t>7,88%</t>
   </si>
   <si>
-    <t>33,56%</t>
+    <t>34,62%</t>
   </si>
   <si>
     <t>4,96%</t>
   </si>
   <si>
-    <t>21,82%</t>
+    <t>21,61%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -222,19 +222,19 @@
     <t>83,01%</t>
   </si>
   <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
   </si>
   <si>
     <t>86,13%</t>
   </si>
   <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -243,67 +243,61 @@
     <t>16,99%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
   </si>
   <si>
     <t>13,87%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
   </si>
   <si>
     <t>82,79%</t>
   </si>
   <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
   </si>
   <si>
     <t>85,79%</t>
   </si>
   <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
   </si>
   <si>
     <t>17,21%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -324,13 +318,13 @@
     <t>89,15%</t>
   </si>
   <si>
-    <t>51,55%</t>
+    <t>43,49%</t>
   </si>
   <si>
     <t>76,97%</t>
   </si>
   <si>
-    <t>35,71%</t>
+    <t>40,85%</t>
   </si>
   <si>
     <t>58,66%</t>
@@ -339,73 +333,73 @@
     <t>10,85%</t>
   </si>
   <si>
-    <t>48,45%</t>
+    <t>56,51%</t>
   </si>
   <si>
     <t>23,03%</t>
   </si>
   <si>
-    <t>64,29%</t>
+    <t>59,15%</t>
   </si>
   <si>
     <t>55,79%</t>
   </si>
   <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
   </si>
   <si>
     <t>74,8%</t>
   </si>
   <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
   </si>
   <si>
     <t>68,42%</t>
   </si>
   <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
   </si>
   <si>
     <t>44,21%</t>
   </si>
   <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
   </si>
   <si>
     <t>25,2%</t>
   </si>
   <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
   </si>
   <si>
     <t>31,58%</t>
   </si>
   <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
   </si>
   <si>
     <t>74,51%</t>
   </si>
   <si>
-    <t>15,94%</t>
+    <t>29,02%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -414,13 +408,13 @@
     <t>88,81%</t>
   </si>
   <si>
-    <t>50,78%</t>
+    <t>58,23%</t>
   </si>
   <si>
     <t>25,49%</t>
   </si>
   <si>
-    <t>84,06%</t>
+    <t>70,98%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -429,7 +423,7 @@
     <t>11,19%</t>
   </si>
   <si>
-    <t>49,22%</t>
+    <t>41,77%</t>
   </si>
   <si>
     <t>67,66%</t>
@@ -444,19 +438,19 @@
     <t>56,47%</t>
   </si>
   <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
   </si>
   <si>
     <t>59,9%</t>
   </si>
   <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
   </si>
   <si>
     <t>32,34%</t>
@@ -471,73 +465,73 @@
     <t>43,53%</t>
   </si>
   <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
   </si>
   <si>
     <t>40,1%</t>
   </si>
   <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
   </si>
   <si>
     <t>63,09%</t>
   </si>
   <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
   </si>
   <si>
     <t>74,47%</t>
   </si>
   <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
   </si>
   <si>
     <t>70,9%</t>
   </si>
   <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
   </si>
   <si>
     <t>36,91%</t>
   </si>
   <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
   </si>
   <si>
     <t>25,53%</t>
   </si>
   <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
   </si>
   <si>
     <t>29,1%</t>
   </si>
   <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
   </si>
 </sst>
 </file>
@@ -949,7 +943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2FADC7-C36D-484E-80EA-FDE70140C793}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E81694B-71B2-44C5-BA16-7D6AB9E09A51}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1842,10 +1836,10 @@
         <v>26562</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>12</v>
@@ -1857,13 +1851,13 @@
         <v>51935</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M19" s="7">
         <v>70</v>
@@ -1872,13 +1866,13 @@
         <v>78497</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1893,13 +1887,13 @@
         <v>2203</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -1908,13 +1902,13 @@
         <v>10795</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -1923,13 +1917,13 @@
         <v>12998</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,7 +1979,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2006,7 +2000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046E03F7-E0A9-4193-BC37-93A1AB56ED85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35873A6A-2A3C-4A58-9915-28519F116745}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2023,7 +2017,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2146,7 +2140,7 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -2161,7 +2155,7 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>14</v>
@@ -2198,7 +2192,7 @@
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2213,7 +2207,7 @@
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,7 +2273,7 @@
         <v>1137</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>16</v>
@@ -2294,10 +2288,10 @@
         <v>7169</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>12</v>
@@ -2309,10 +2303,10 @@
         <v>8305</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>12</v>
@@ -2330,7 +2324,7 @@
         <v>1613</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>16</v>
@@ -2345,13 +2339,13 @@
         <v>873</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2360,13 +2354,13 @@
         <v>2486</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2428,13 @@
         <v>3877</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -2449,13 +2443,13 @@
         <v>10276</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -2464,13 +2458,13 @@
         <v>14153</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2479,13 @@
         <v>3072</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -2500,13 +2494,13 @@
         <v>3462</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -2515,13 +2509,13 @@
         <v>6534</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,10 +2583,10 @@
         <v>4214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>12</v>
@@ -2607,7 +2601,7 @@
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -2619,10 +2613,10 @@
         <v>11445</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>12</v>
@@ -2640,13 +2634,13 @@
         <v>1442</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2661,7 +2655,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2670,13 +2664,13 @@
         <v>1442</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,13 +2738,13 @@
         <v>6800</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -2759,13 +2753,13 @@
         <v>12836</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -2774,13 +2768,13 @@
         <v>19635</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,13 +2789,13 @@
         <v>3250</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -2810,13 +2804,13 @@
         <v>9896</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -2825,13 +2819,13 @@
         <v>13146</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,13 +2893,13 @@
         <v>16028</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
@@ -2914,13 +2908,13 @@
         <v>41502</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -2929,13 +2923,13 @@
         <v>57529</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,13 +2944,13 @@
         <v>9376</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -2965,13 +2959,13 @@
         <v>14230</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -2980,13 +2974,13 @@
         <v>23607</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,7 +3036,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A05-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F54CF671-AEBC-40D1-9AA7-6CF2336216A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB0F1663-F130-42AD-8EC2-0E9A6241AFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{961B5C2B-0FC2-4EFD-B272-180C22D8D814}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{460B58C1-1F46-4D24-B07A-05F4CE6B040D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="167">
   <si>
     <t>Población que recibe medicación o terapia por colitis en 2012 (Tasa respuesta: 1,24%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -96,13 +96,13 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>87,33%</t>
   </si>
   <si>
-    <t>56,37%</t>
+    <t>42,79%</t>
   </si>
   <si>
     <t>72,08%</t>
@@ -111,13 +111,13 @@
     <t>82,3%</t>
   </si>
   <si>
-    <t>53,26%</t>
+    <t>51,91%</t>
   </si>
   <si>
     <t>12,67%</t>
   </si>
   <si>
-    <t>43,63%</t>
+    <t>57,21%</t>
   </si>
   <si>
     <t>27,92%</t>
@@ -126,184 +126,190 @@
     <t>17,7%</t>
   </si>
   <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>84,56%</t>
   </si>
   <si>
-    <t>39,95%</t>
+    <t>39,94%</t>
   </si>
   <si>
     <t>77,91%</t>
   </si>
   <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
   </si>
   <si>
     <t>79,77%</t>
   </si>
   <si>
-    <t>61,36%</t>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
   </si>
   <si>
     <t>92,34%</t>
   </si>
   <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
   </si>
   <si>
     <t>7,66%</t>
   </si>
   <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
+    <t>23,92%</t>
   </si>
   <si>
     <t>17,21%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por colitis en 2015 (Tasa respuesta: 1,11%)</t>
+    <t>Población que recibe medicación o terapia por colitis en 2016 (Tasa respuesta: 1,11%)</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -318,13 +324,13 @@
     <t>89,15%</t>
   </si>
   <si>
-    <t>43,49%</t>
+    <t>49,18%</t>
   </si>
   <si>
     <t>76,97%</t>
   </si>
   <si>
-    <t>40,85%</t>
+    <t>38,14%</t>
   </si>
   <si>
     <t>58,66%</t>
@@ -333,19 +339,19 @@
     <t>10,85%</t>
   </si>
   <si>
-    <t>56,51%</t>
+    <t>50,82%</t>
   </si>
   <si>
     <t>23,03%</t>
   </si>
   <si>
-    <t>59,15%</t>
+    <t>61,86%</t>
   </si>
   <si>
     <t>55,79%</t>
   </si>
   <si>
-    <t>26,33%</t>
+    <t>26,3%</t>
   </si>
   <si>
     <t>85,39%</t>
@@ -354,19 +360,19 @@
     <t>74,8%</t>
   </si>
   <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
   </si>
   <si>
     <t>68,42%</t>
   </si>
   <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
   </si>
   <si>
     <t>44,21%</t>
@@ -375,31 +381,31 @@
     <t>14,61%</t>
   </si>
   <si>
-    <t>73,67%</t>
+    <t>73,7%</t>
   </si>
   <si>
     <t>25,2%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
   </si>
   <si>
     <t>31,58%</t>
   </si>
   <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
   </si>
   <si>
     <t>74,51%</t>
   </si>
   <si>
-    <t>29,02%</t>
+    <t>14,85%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -408,13 +414,13 @@
     <t>88,81%</t>
   </si>
   <si>
-    <t>58,23%</t>
+    <t>58,0%</t>
   </si>
   <si>
     <t>25,49%</t>
   </si>
   <si>
-    <t>70,98%</t>
+    <t>85,15%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -423,115 +429,115 @@
     <t>11,19%</t>
   </si>
   <si>
-    <t>41,77%</t>
+    <t>42,0%</t>
   </si>
   <si>
     <t>67,66%</t>
   </si>
   <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
   </si>
   <si>
     <t>56,47%</t>
   </si>
   <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
   </si>
   <si>
     <t>59,9%</t>
   </si>
   <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
     <t>40,95%</t>
   </si>
   <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
   </si>
   <si>
     <t>59,05%</t>
   </si>
   <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
     <t>25,53%</t>
   </si>
   <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
   </si>
   <si>
     <t>29,1%</t>
   </si>
   <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
   </si>
 </sst>
 </file>
@@ -943,7 +949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E81694B-71B2-44C5-BA16-7D6AB9E09A51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6727DC-4576-49FF-AC11-5E7DF46CC0A6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1836,10 +1842,10 @@
         <v>26562</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>12</v>
@@ -1851,13 +1857,13 @@
         <v>51935</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M19" s="7">
         <v>70</v>
@@ -1866,13 +1872,13 @@
         <v>78497</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1887,13 +1893,13 @@
         <v>2203</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -1902,13 +1908,13 @@
         <v>10795</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -1917,13 +1923,13 @@
         <v>12998</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,7 +1985,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +2006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35873A6A-2A3C-4A58-9915-28519F116745}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B347B83-D648-490C-9328-8A3E0829F6D9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2017,7 +2023,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2140,7 +2146,7 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -2155,7 +2161,7 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>14</v>
@@ -2192,7 +2198,7 @@
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2207,7 +2213,7 @@
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,7 +2279,7 @@
         <v>1137</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>16</v>
@@ -2288,10 +2294,10 @@
         <v>7169</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>12</v>
@@ -2303,10 +2309,10 @@
         <v>8305</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>12</v>
@@ -2324,7 +2330,7 @@
         <v>1613</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>16</v>
@@ -2339,13 +2345,13 @@
         <v>873</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2354,13 +2360,13 @@
         <v>2486</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2434,13 @@
         <v>3877</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -2443,13 +2449,13 @@
         <v>10276</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -2458,13 +2464,13 @@
         <v>14153</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,13 +2485,13 @@
         <v>3072</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -2494,13 +2500,13 @@
         <v>3462</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -2509,13 +2515,13 @@
         <v>6534</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,10 +2589,10 @@
         <v>4214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>12</v>
@@ -2601,7 +2607,7 @@
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -2613,10 +2619,10 @@
         <v>11445</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>12</v>
@@ -2634,13 +2640,13 @@
         <v>1442</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2655,7 +2661,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2664,13 +2670,13 @@
         <v>1442</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2744,13 @@
         <v>6800</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -2753,13 +2759,13 @@
         <v>12836</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -2768,13 +2774,13 @@
         <v>19635</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,13 +2795,13 @@
         <v>3250</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -2804,13 +2810,13 @@
         <v>9896</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -2819,13 +2825,13 @@
         <v>13146</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2899,13 @@
         <v>16028</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
@@ -2908,13 +2914,13 @@
         <v>41502</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -2923,13 +2929,13 @@
         <v>57529</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2950,13 @@
         <v>9376</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -2959,13 +2965,13 @@
         <v>14230</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -2974,13 +2980,13 @@
         <v>23607</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,7 +3042,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
